--- a/заказы/статистика филиалы/2023/11,23/30,11,23 ЗПФ/дв 30,11,23 лгрсч зпф от филиала.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/30,11,23 ЗПФ/дв 30,11,23 лгрсч зпф от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\30,11,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\30,11,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1567A616-F284-4278-896D-28A28B758D06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B129E11-450A-444B-8D6B-3246D5B69EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$AA$63</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -323,6 +323,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -502,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -569,6 +571,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4983,8 +4986,8 @@
   <dimension ref="A1:AA63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB11" sqref="AB11"/>
+      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB47" sqref="AB47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -5290,7 +5293,7 @@
         <v>12</v>
       </c>
       <c r="Z6" s="20">
-        <f t="shared" ref="Z6:Z8" si="4">O6/Y6</f>
+        <f t="shared" ref="Z6:Z7" si="4">O6/Y6</f>
         <v>0</v>
       </c>
       <c r="AA6" s="2">
@@ -5620,7 +5623,7 @@
         <v>24</v>
       </c>
       <c r="Z10" s="20">
-        <f t="shared" ref="Z10:Z63" si="12">O10/Y10</f>
+        <f t="shared" ref="Z10:Z59" si="12">O10/Y10</f>
         <v>0</v>
       </c>
       <c r="AA10" s="2">
@@ -9551,7 +9554,7 @@
       <c r="Z60" s="20">
         <v>37</v>
       </c>
-      <c r="AA60" s="2">
+      <c r="AA60" s="30">
         <f t="shared" si="10"/>
         <v>99.9</v>
       </c>
